--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="5">
   <si>
     <t>工号</t>
   </si>
@@ -28,1231 +28,7 @@
     <t>新婚快乐</t>
   </si>
   <si>
-    <t>000001</t>
-  </si>
-  <si>
     <t>百年好合</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t>000005</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t>000007</t>
-  </si>
-  <si>
-    <t>000008</t>
-  </si>
-  <si>
-    <t>000009</t>
-  </si>
-  <si>
-    <t>000010</t>
-  </si>
-  <si>
-    <t>000011</t>
-  </si>
-  <si>
-    <t>000012</t>
-  </si>
-  <si>
-    <t>000013</t>
-  </si>
-  <si>
-    <t>000014</t>
-  </si>
-  <si>
-    <t>000015</t>
-  </si>
-  <si>
-    <t>000016</t>
-  </si>
-  <si>
-    <t>000017</t>
-  </si>
-  <si>
-    <t>000018</t>
-  </si>
-  <si>
-    <t>000019</t>
-  </si>
-  <si>
-    <t>000020</t>
-  </si>
-  <si>
-    <t>000021</t>
-  </si>
-  <si>
-    <t>000022</t>
-  </si>
-  <si>
-    <t>000023</t>
-  </si>
-  <si>
-    <t>000024</t>
-  </si>
-  <si>
-    <t>000025</t>
-  </si>
-  <si>
-    <t>000026</t>
-  </si>
-  <si>
-    <t>000027</t>
-  </si>
-  <si>
-    <t>000028</t>
-  </si>
-  <si>
-    <t>000029</t>
-  </si>
-  <si>
-    <t>000030</t>
-  </si>
-  <si>
-    <t>000031</t>
-  </si>
-  <si>
-    <t>000032</t>
-  </si>
-  <si>
-    <t>000033</t>
-  </si>
-  <si>
-    <t>000034</t>
-  </si>
-  <si>
-    <t>000035</t>
-  </si>
-  <si>
-    <t>000036</t>
-  </si>
-  <si>
-    <t>000037</t>
-  </si>
-  <si>
-    <t>000038</t>
-  </si>
-  <si>
-    <t>000039</t>
-  </si>
-  <si>
-    <t>000040</t>
-  </si>
-  <si>
-    <t>000041</t>
-  </si>
-  <si>
-    <t>000042</t>
-  </si>
-  <si>
-    <t>000043</t>
-  </si>
-  <si>
-    <t>000044</t>
-  </si>
-  <si>
-    <t>000045</t>
-  </si>
-  <si>
-    <t>000046</t>
-  </si>
-  <si>
-    <t>000047</t>
-  </si>
-  <si>
-    <t>000048</t>
-  </si>
-  <si>
-    <t>000049</t>
-  </si>
-  <si>
-    <t>000050</t>
-  </si>
-  <si>
-    <t>000051</t>
-  </si>
-  <si>
-    <t>000052</t>
-  </si>
-  <si>
-    <t>000053</t>
-  </si>
-  <si>
-    <t>000054</t>
-  </si>
-  <si>
-    <t>000055</t>
-  </si>
-  <si>
-    <t>000056</t>
-  </si>
-  <si>
-    <t>000057</t>
-  </si>
-  <si>
-    <t>000058</t>
-  </si>
-  <si>
-    <t>000059</t>
-  </si>
-  <si>
-    <t>000060</t>
-  </si>
-  <si>
-    <t>000061</t>
-  </si>
-  <si>
-    <t>000062</t>
-  </si>
-  <si>
-    <t>000063</t>
-  </si>
-  <si>
-    <t>000064</t>
-  </si>
-  <si>
-    <t>000065</t>
-  </si>
-  <si>
-    <t>000066</t>
-  </si>
-  <si>
-    <t>000067</t>
-  </si>
-  <si>
-    <t>000068</t>
-  </si>
-  <si>
-    <t>000069</t>
-  </si>
-  <si>
-    <t>000070</t>
-  </si>
-  <si>
-    <t>000071</t>
-  </si>
-  <si>
-    <t>000072</t>
-  </si>
-  <si>
-    <t>000073</t>
-  </si>
-  <si>
-    <t>000074</t>
-  </si>
-  <si>
-    <t>000075</t>
-  </si>
-  <si>
-    <t>000076</t>
-  </si>
-  <si>
-    <t>000077</t>
-  </si>
-  <si>
-    <t>000078</t>
-  </si>
-  <si>
-    <t>000079</t>
-  </si>
-  <si>
-    <t>000080</t>
-  </si>
-  <si>
-    <t>000081</t>
-  </si>
-  <si>
-    <t>000082</t>
-  </si>
-  <si>
-    <t>000083</t>
-  </si>
-  <si>
-    <t>000084</t>
-  </si>
-  <si>
-    <t>000085</t>
-  </si>
-  <si>
-    <t>000086</t>
-  </si>
-  <si>
-    <t>000087</t>
-  </si>
-  <si>
-    <t>000088</t>
-  </si>
-  <si>
-    <t>000089</t>
-  </si>
-  <si>
-    <t>000090</t>
-  </si>
-  <si>
-    <t>000091</t>
-  </si>
-  <si>
-    <t>000092</t>
-  </si>
-  <si>
-    <t>000093</t>
-  </si>
-  <si>
-    <t>000094</t>
-  </si>
-  <si>
-    <t>000095</t>
-  </si>
-  <si>
-    <t>000096</t>
-  </si>
-  <si>
-    <t>000097</t>
-  </si>
-  <si>
-    <t>000098</t>
-  </si>
-  <si>
-    <t>000099</t>
-  </si>
-  <si>
-    <t>000100</t>
-  </si>
-  <si>
-    <t>000101</t>
-  </si>
-  <si>
-    <t>000102</t>
-  </si>
-  <si>
-    <t>000103</t>
-  </si>
-  <si>
-    <t>000104</t>
-  </si>
-  <si>
-    <t>000105</t>
-  </si>
-  <si>
-    <t>000106</t>
-  </si>
-  <si>
-    <t>000107</t>
-  </si>
-  <si>
-    <t>000108</t>
-  </si>
-  <si>
-    <t>000109</t>
-  </si>
-  <si>
-    <t>000110</t>
-  </si>
-  <si>
-    <t>000111</t>
-  </si>
-  <si>
-    <t>000112</t>
-  </si>
-  <si>
-    <t>000113</t>
-  </si>
-  <si>
-    <t>000114</t>
-  </si>
-  <si>
-    <t>000115</t>
-  </si>
-  <si>
-    <t>000116</t>
-  </si>
-  <si>
-    <t>000117</t>
-  </si>
-  <si>
-    <t>000118</t>
-  </si>
-  <si>
-    <t>000119</t>
-  </si>
-  <si>
-    <t>000120</t>
-  </si>
-  <si>
-    <t>000121</t>
-  </si>
-  <si>
-    <t>000122</t>
-  </si>
-  <si>
-    <t>000123</t>
-  </si>
-  <si>
-    <t>000124</t>
-  </si>
-  <si>
-    <t>000125</t>
-  </si>
-  <si>
-    <t>000126</t>
-  </si>
-  <si>
-    <t>000127</t>
-  </si>
-  <si>
-    <t>000128</t>
-  </si>
-  <si>
-    <t>000129</t>
-  </si>
-  <si>
-    <t>000130</t>
-  </si>
-  <si>
-    <t>000131</t>
-  </si>
-  <si>
-    <t>000132</t>
-  </si>
-  <si>
-    <t>000133</t>
-  </si>
-  <si>
-    <t>000134</t>
-  </si>
-  <si>
-    <t>000135</t>
-  </si>
-  <si>
-    <t>000136</t>
-  </si>
-  <si>
-    <t>000137</t>
-  </si>
-  <si>
-    <t>000138</t>
-  </si>
-  <si>
-    <t>000139</t>
-  </si>
-  <si>
-    <t>000140</t>
-  </si>
-  <si>
-    <t>000141</t>
-  </si>
-  <si>
-    <t>000142</t>
-  </si>
-  <si>
-    <t>000143</t>
-  </si>
-  <si>
-    <t>000144</t>
-  </si>
-  <si>
-    <t>000145</t>
-  </si>
-  <si>
-    <t>000146</t>
-  </si>
-  <si>
-    <t>000147</t>
-  </si>
-  <si>
-    <t>000148</t>
-  </si>
-  <si>
-    <t>000149</t>
-  </si>
-  <si>
-    <t>000150</t>
-  </si>
-  <si>
-    <t>000151</t>
-  </si>
-  <si>
-    <t>000152</t>
-  </si>
-  <si>
-    <t>000153</t>
-  </si>
-  <si>
-    <t>000154</t>
-  </si>
-  <si>
-    <t>000155</t>
-  </si>
-  <si>
-    <t>000156</t>
-  </si>
-  <si>
-    <t>000157</t>
-  </si>
-  <si>
-    <t>000158</t>
-  </si>
-  <si>
-    <t>000159</t>
-  </si>
-  <si>
-    <t>000160</t>
-  </si>
-  <si>
-    <t>000161</t>
-  </si>
-  <si>
-    <t>000162</t>
-  </si>
-  <si>
-    <t>000163</t>
-  </si>
-  <si>
-    <t>000164</t>
-  </si>
-  <si>
-    <t>000165</t>
-  </si>
-  <si>
-    <t>000166</t>
-  </si>
-  <si>
-    <t>000167</t>
-  </si>
-  <si>
-    <t>000168</t>
-  </si>
-  <si>
-    <t>000169</t>
-  </si>
-  <si>
-    <t>000170</t>
-  </si>
-  <si>
-    <t>000171</t>
-  </si>
-  <si>
-    <t>000172</t>
-  </si>
-  <si>
-    <t>000173</t>
-  </si>
-  <si>
-    <t>000174</t>
-  </si>
-  <si>
-    <t>000175</t>
-  </si>
-  <si>
-    <t>000176</t>
-  </si>
-  <si>
-    <t>000177</t>
-  </si>
-  <si>
-    <t>000178</t>
-  </si>
-  <si>
-    <t>000179</t>
-  </si>
-  <si>
-    <t>000180</t>
-  </si>
-  <si>
-    <t>000181</t>
-  </si>
-  <si>
-    <t>000182</t>
-  </si>
-  <si>
-    <t>000183</t>
-  </si>
-  <si>
-    <t>000184</t>
-  </si>
-  <si>
-    <t>000185</t>
-  </si>
-  <si>
-    <t>000186</t>
-  </si>
-  <si>
-    <t>000187</t>
-  </si>
-  <si>
-    <t>000188</t>
-  </si>
-  <si>
-    <t>000189</t>
-  </si>
-  <si>
-    <t>000190</t>
-  </si>
-  <si>
-    <t>000191</t>
-  </si>
-  <si>
-    <t>000192</t>
-  </si>
-  <si>
-    <t>000193</t>
-  </si>
-  <si>
-    <t>000194</t>
-  </si>
-  <si>
-    <t>000195</t>
-  </si>
-  <si>
-    <t>000196</t>
-  </si>
-  <si>
-    <t>000197</t>
-  </si>
-  <si>
-    <t>000198</t>
-  </si>
-  <si>
-    <t>000199</t>
-  </si>
-  <si>
-    <t>000200</t>
-  </si>
-  <si>
-    <t>000201</t>
-  </si>
-  <si>
-    <t>000202</t>
-  </si>
-  <si>
-    <t>000203</t>
-  </si>
-  <si>
-    <t>000204</t>
-  </si>
-  <si>
-    <t>000205</t>
-  </si>
-  <si>
-    <t>000206</t>
-  </si>
-  <si>
-    <t>000207</t>
-  </si>
-  <si>
-    <t>000208</t>
-  </si>
-  <si>
-    <t>000209</t>
-  </si>
-  <si>
-    <t>000210</t>
-  </si>
-  <si>
-    <t>000211</t>
-  </si>
-  <si>
-    <t>000212</t>
-  </si>
-  <si>
-    <t>000213</t>
-  </si>
-  <si>
-    <t>000214</t>
-  </si>
-  <si>
-    <t>000215</t>
-  </si>
-  <si>
-    <t>000216</t>
-  </si>
-  <si>
-    <t>000217</t>
-  </si>
-  <si>
-    <t>000218</t>
-  </si>
-  <si>
-    <t>000219</t>
-  </si>
-  <si>
-    <t>000220</t>
-  </si>
-  <si>
-    <t>000221</t>
-  </si>
-  <si>
-    <t>000222</t>
-  </si>
-  <si>
-    <t>000223</t>
-  </si>
-  <si>
-    <t>000224</t>
-  </si>
-  <si>
-    <t>000225</t>
-  </si>
-  <si>
-    <t>000226</t>
-  </si>
-  <si>
-    <t>000227</t>
-  </si>
-  <si>
-    <t>000228</t>
-  </si>
-  <si>
-    <t>000229</t>
-  </si>
-  <si>
-    <t>000230</t>
-  </si>
-  <si>
-    <t>000231</t>
-  </si>
-  <si>
-    <t>000232</t>
-  </si>
-  <si>
-    <t>000233</t>
-  </si>
-  <si>
-    <t>000234</t>
-  </si>
-  <si>
-    <t>000235</t>
-  </si>
-  <si>
-    <t>000236</t>
-  </si>
-  <si>
-    <t>000237</t>
-  </si>
-  <si>
-    <t>000238</t>
-  </si>
-  <si>
-    <t>000239</t>
-  </si>
-  <si>
-    <t>000240</t>
-  </si>
-  <si>
-    <t>000241</t>
-  </si>
-  <si>
-    <t>000242</t>
-  </si>
-  <si>
-    <t>000243</t>
-  </si>
-  <si>
-    <t>000244</t>
-  </si>
-  <si>
-    <t>000245</t>
-  </si>
-  <si>
-    <t>000246</t>
-  </si>
-  <si>
-    <t>000247</t>
-  </si>
-  <si>
-    <t>000248</t>
-  </si>
-  <si>
-    <t>000249</t>
-  </si>
-  <si>
-    <t>000250</t>
-  </si>
-  <si>
-    <t>000251</t>
-  </si>
-  <si>
-    <t>000252</t>
-  </si>
-  <si>
-    <t>000253</t>
-  </si>
-  <si>
-    <t>000254</t>
-  </si>
-  <si>
-    <t>000255</t>
-  </si>
-  <si>
-    <t>000256</t>
-  </si>
-  <si>
-    <t>000257</t>
-  </si>
-  <si>
-    <t>000258</t>
-  </si>
-  <si>
-    <t>000259</t>
-  </si>
-  <si>
-    <t>000260</t>
-  </si>
-  <si>
-    <t>000261</t>
-  </si>
-  <si>
-    <t>000262</t>
-  </si>
-  <si>
-    <t>000263</t>
-  </si>
-  <si>
-    <t>000264</t>
-  </si>
-  <si>
-    <t>000265</t>
-  </si>
-  <si>
-    <t>000266</t>
-  </si>
-  <si>
-    <t>000267</t>
-  </si>
-  <si>
-    <t>000268</t>
-  </si>
-  <si>
-    <t>000269</t>
-  </si>
-  <si>
-    <t>000270</t>
-  </si>
-  <si>
-    <t>000271</t>
-  </si>
-  <si>
-    <t>000272</t>
-  </si>
-  <si>
-    <t>000273</t>
-  </si>
-  <si>
-    <t>000274</t>
-  </si>
-  <si>
-    <t>000275</t>
-  </si>
-  <si>
-    <t>000276</t>
-  </si>
-  <si>
-    <t>000277</t>
-  </si>
-  <si>
-    <t>000278</t>
-  </si>
-  <si>
-    <t>000279</t>
-  </si>
-  <si>
-    <t>000280</t>
-  </si>
-  <si>
-    <t>000281</t>
-  </si>
-  <si>
-    <t>000282</t>
-  </si>
-  <si>
-    <t>000283</t>
-  </si>
-  <si>
-    <t>000284</t>
-  </si>
-  <si>
-    <t>000285</t>
-  </si>
-  <si>
-    <t>000286</t>
-  </si>
-  <si>
-    <t>000287</t>
-  </si>
-  <si>
-    <t>000288</t>
-  </si>
-  <si>
-    <t>000289</t>
-  </si>
-  <si>
-    <t>000290</t>
-  </si>
-  <si>
-    <t>000291</t>
-  </si>
-  <si>
-    <t>000292</t>
-  </si>
-  <si>
-    <t>000293</t>
-  </si>
-  <si>
-    <t>000294</t>
-  </si>
-  <si>
-    <t>000295</t>
-  </si>
-  <si>
-    <t>000296</t>
-  </si>
-  <si>
-    <t>000297</t>
-  </si>
-  <si>
-    <t>000298</t>
-  </si>
-  <si>
-    <t>000299</t>
-  </si>
-  <si>
-    <t>000300</t>
-  </si>
-  <si>
-    <t>000301</t>
-  </si>
-  <si>
-    <t>000302</t>
-  </si>
-  <si>
-    <t>000303</t>
-  </si>
-  <si>
-    <t>000304</t>
-  </si>
-  <si>
-    <t>000305</t>
-  </si>
-  <si>
-    <t>000306</t>
-  </si>
-  <si>
-    <t>000307</t>
-  </si>
-  <si>
-    <t>000308</t>
-  </si>
-  <si>
-    <t>000309</t>
-  </si>
-  <si>
-    <t>000310</t>
-  </si>
-  <si>
-    <t>000311</t>
-  </si>
-  <si>
-    <t>000312</t>
-  </si>
-  <si>
-    <t>000313</t>
-  </si>
-  <si>
-    <t>000314</t>
-  </si>
-  <si>
-    <t>000315</t>
-  </si>
-  <si>
-    <t>000316</t>
-  </si>
-  <si>
-    <t>000317</t>
-  </si>
-  <si>
-    <t>000318</t>
-  </si>
-  <si>
-    <t>000319</t>
-  </si>
-  <si>
-    <t>000320</t>
-  </si>
-  <si>
-    <t>000321</t>
-  </si>
-  <si>
-    <t>000322</t>
-  </si>
-  <si>
-    <t>000323</t>
-  </si>
-  <si>
-    <t>000324</t>
-  </si>
-  <si>
-    <t>000325</t>
-  </si>
-  <si>
-    <t>000326</t>
-  </si>
-  <si>
-    <t>000327</t>
-  </si>
-  <si>
-    <t>000328</t>
-  </si>
-  <si>
-    <t>000329</t>
-  </si>
-  <si>
-    <t>000330</t>
-  </si>
-  <si>
-    <t>000331</t>
-  </si>
-  <si>
-    <t>000332</t>
-  </si>
-  <si>
-    <t>000333</t>
-  </si>
-  <si>
-    <t>000334</t>
-  </si>
-  <si>
-    <t>000335</t>
-  </si>
-  <si>
-    <t>000336</t>
-  </si>
-  <si>
-    <t>000337</t>
-  </si>
-  <si>
-    <t>000338</t>
-  </si>
-  <si>
-    <t>000339</t>
-  </si>
-  <si>
-    <t>000340</t>
-  </si>
-  <si>
-    <t>000341</t>
-  </si>
-  <si>
-    <t>000342</t>
-  </si>
-  <si>
-    <t>000343</t>
-  </si>
-  <si>
-    <t>000344</t>
-  </si>
-  <si>
-    <t>000345</t>
-  </si>
-  <si>
-    <t>000346</t>
-  </si>
-  <si>
-    <t>000347</t>
-  </si>
-  <si>
-    <t>000348</t>
-  </si>
-  <si>
-    <t>000349</t>
-  </si>
-  <si>
-    <t>000350</t>
-  </si>
-  <si>
-    <t>000351</t>
-  </si>
-  <si>
-    <t>000352</t>
-  </si>
-  <si>
-    <t>000353</t>
-  </si>
-  <si>
-    <t>000354</t>
-  </si>
-  <si>
-    <t>000355</t>
-  </si>
-  <si>
-    <t>000356</t>
-  </si>
-  <si>
-    <t>000357</t>
-  </si>
-  <si>
-    <t>000358</t>
-  </si>
-  <si>
-    <t>000359</t>
-  </si>
-  <si>
-    <t>000360</t>
-  </si>
-  <si>
-    <t>000361</t>
-  </si>
-  <si>
-    <t>000362</t>
-  </si>
-  <si>
-    <t>000363</t>
-  </si>
-  <si>
-    <t>000364</t>
-  </si>
-  <si>
-    <t>000365</t>
-  </si>
-  <si>
-    <t>000366</t>
-  </si>
-  <si>
-    <t>000367</t>
-  </si>
-  <si>
-    <t>000368</t>
-  </si>
-  <si>
-    <t>000369</t>
-  </si>
-  <si>
-    <t>000370</t>
-  </si>
-  <si>
-    <t>000371</t>
-  </si>
-  <si>
-    <t>000372</t>
-  </si>
-  <si>
-    <t>000373</t>
-  </si>
-  <si>
-    <t>000374</t>
-  </si>
-  <si>
-    <t>000375</t>
-  </si>
-  <si>
-    <t>000376</t>
-  </si>
-  <si>
-    <t>000377</t>
-  </si>
-  <si>
-    <t>000378</t>
-  </si>
-  <si>
-    <t>000379</t>
-  </si>
-  <si>
-    <t>000380</t>
-  </si>
-  <si>
-    <t>000381</t>
-  </si>
-  <si>
-    <t>000382</t>
-  </si>
-  <si>
-    <t>000383</t>
-  </si>
-  <si>
-    <t>000384</t>
-  </si>
-  <si>
-    <t>000385</t>
-  </si>
-  <si>
-    <t>000386</t>
-  </si>
-  <si>
-    <t>000387</t>
-  </si>
-  <si>
-    <t>000388</t>
-  </si>
-  <si>
-    <t>000389</t>
-  </si>
-  <si>
-    <t>000390</t>
-  </si>
-  <si>
-    <t>000391</t>
-  </si>
-  <si>
-    <t>000392</t>
-  </si>
-  <si>
-    <t>000393</t>
-  </si>
-  <si>
-    <t>000394</t>
-  </si>
-  <si>
-    <t>000395</t>
-  </si>
-  <si>
-    <t>000396</t>
-  </si>
-  <si>
-    <t>000397</t>
-  </si>
-  <si>
-    <t>000398</t>
-  </si>
-  <si>
-    <t>000399</t>
-  </si>
-  <si>
-    <t>000400</t>
-  </si>
-  <si>
-    <t>000401</t>
-  </si>
-  <si>
-    <t>000402</t>
-  </si>
-  <si>
-    <t>000403</t>
-  </si>
-  <si>
-    <t>000404</t>
-  </si>
-  <si>
-    <t>000405</t>
-  </si>
-  <si>
-    <t>000406</t>
-  </si>
-  <si>
-    <t>000407</t>
-  </si>
-  <si>
-    <t>000408</t>
   </si>
 </sst>
 </file>
@@ -1260,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1285,8 +61,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,8 +90,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,16 +113,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,86 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,7 +214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,7 +232,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,163 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,6 +419,32 @@
       </top>
       <bottom style="thin">
         <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,17 +479,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1697,15 +502,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,26 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1752,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1764,16 +540,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1782,115 +558,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1906,9 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2229,10 +1002,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C409"/>
+  <dimension ref="A1:C451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2255,4488 +1028,4950 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>8001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
+      <c r="B3" s="1">
+        <v>8002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="1">
+        <v>8003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="B5" s="1">
+        <v>8004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+      <c r="B6" s="1">
+        <v>8005</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="1">
+        <v>8006</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
+      <c r="B8" s="1">
+        <v>8007</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
+      <c r="B9" s="1">
+        <v>8008</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
+      <c r="B10" s="1">
+        <v>8009</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
+      <c r="B11" s="1">
+        <v>8010</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
+      <c r="B12" s="1">
+        <v>8011</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
+      <c r="B13" s="1">
+        <v>8012</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
+      <c r="B14" s="1">
+        <v>8013</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
+      <c r="B15" s="1">
+        <v>8014</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
+      <c r="B16" s="1">
+        <v>8015</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
+      <c r="B17" s="1">
+        <v>8016</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
+      <c r="B18" s="1">
+        <v>8017</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
+      <c r="B19" s="1">
+        <v>8018</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>23</v>
+      <c r="B20" s="1">
+        <v>8019</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
+      <c r="B21" s="1">
+        <v>8020</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
+      <c r="B22" s="1">
+        <v>8021</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
+      <c r="B23" s="1">
+        <v>8022</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
+      <c r="B24" s="1">
+        <v>8023</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
+      <c r="B25" s="1">
+        <v>8024</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
+      <c r="B26" s="1">
+        <v>8025</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
+      <c r="B27" s="1">
+        <v>8026</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
+      <c r="B28" s="1">
+        <v>8027</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
+      <c r="B29" s="1">
+        <v>8028</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>33</v>
+      <c r="B30" s="1">
+        <v>8029</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>34</v>
+      <c r="B31" s="1">
+        <v>8030</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>35</v>
+      <c r="B32" s="1">
+        <v>8031</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>36</v>
+      <c r="B33" s="1">
+        <v>8032</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
+      <c r="B34" s="1">
+        <v>8033</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>38</v>
+      <c r="B35" s="1">
+        <v>8034</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>39</v>
+      <c r="B36" s="1">
+        <v>8035</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
+      <c r="B37" s="1">
+        <v>8036</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>41</v>
+      <c r="B38" s="1">
+        <v>8037</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>42</v>
+      <c r="B39" s="1">
+        <v>8038</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>43</v>
+      <c r="B40" s="1">
+        <v>8039</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>44</v>
+      <c r="B41" s="1">
+        <v>8040</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>45</v>
+      <c r="B42" s="1">
+        <v>8041</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>46</v>
+      <c r="B43" s="1">
+        <v>8042</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>47</v>
+      <c r="B44" s="1">
+        <v>8043</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>48</v>
+      <c r="B45" s="1">
+        <v>8044</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>49</v>
+      <c r="B46" s="1">
+        <v>8045</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>50</v>
+      <c r="B47" s="1">
+        <v>8046</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>51</v>
+      <c r="B48" s="1">
+        <v>8047</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>52</v>
+      <c r="B49" s="1">
+        <v>8048</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>53</v>
+      <c r="B50" s="1">
+        <v>8049</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>54</v>
+      <c r="B51" s="1">
+        <v>8050</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>55</v>
+      <c r="B52" s="1">
+        <v>8051</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>56</v>
+      <c r="B53" s="1">
+        <v>8052</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>57</v>
+      <c r="B54" s="1">
+        <v>8053</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>58</v>
+      <c r="B55" s="1">
+        <v>8054</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>59</v>
+      <c r="B56" s="1">
+        <v>8055</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>60</v>
+      <c r="B57" s="1">
+        <v>8056</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>61</v>
+      <c r="B58" s="1">
+        <v>8057</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>62</v>
+      <c r="B59" s="1">
+        <v>8058</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>63</v>
+      <c r="B60" s="1">
+        <v>8059</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>64</v>
+      <c r="B61" s="1">
+        <v>8060</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>65</v>
+      <c r="B62" s="1">
+        <v>8061</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>66</v>
+      <c r="B63" s="1">
+        <v>8062</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>67</v>
+      <c r="B64" s="1">
+        <v>8063</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>68</v>
+      <c r="B65" s="1">
+        <v>8064</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>69</v>
+      <c r="B66" s="1">
+        <v>8065</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>70</v>
+      <c r="B67" s="1">
+        <v>8066</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>71</v>
+      <c r="B68" s="1">
+        <v>8067</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>72</v>
+      <c r="B69" s="1">
+        <v>8068</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>73</v>
+      <c r="B70" s="1">
+        <v>8069</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>74</v>
+      <c r="B71" s="1">
+        <v>8070</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>75</v>
+      <c r="B72" s="1">
+        <v>8071</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>76</v>
+      <c r="B73" s="1">
+        <v>8072</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>77</v>
+      <c r="B74" s="1">
+        <v>8073</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>78</v>
+      <c r="B75" s="1">
+        <v>8074</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>79</v>
+      <c r="B76" s="1">
+        <v>8075</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>80</v>
+      <c r="B77" s="1">
+        <v>8076</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>81</v>
+      <c r="B78" s="1">
+        <v>8077</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>82</v>
+      <c r="B79" s="1">
+        <v>8078</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>83</v>
+      <c r="B80" s="1">
+        <v>8079</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>84</v>
+      <c r="B81" s="1">
+        <v>8080</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>85</v>
+      <c r="B82" s="1">
+        <v>8081</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>86</v>
+      <c r="B83" s="1">
+        <v>8082</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>87</v>
+      <c r="B84" s="1">
+        <v>8083</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>88</v>
+      <c r="B85" s="1">
+        <v>8084</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>89</v>
+      <c r="B86" s="1">
+        <v>8085</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>90</v>
+      <c r="B87" s="1">
+        <v>8086</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>91</v>
+      <c r="B88" s="1">
+        <v>8087</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>92</v>
+      <c r="B89" s="1">
+        <v>8088</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>93</v>
+      <c r="B90" s="1">
+        <v>8089</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>94</v>
+      <c r="B91" s="1">
+        <v>8090</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>95</v>
+      <c r="B92" s="1">
+        <v>8091</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>96</v>
+      <c r="B93" s="1">
+        <v>8092</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>97</v>
+      <c r="B94" s="1">
+        <v>8093</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>98</v>
+      <c r="B95" s="1">
+        <v>8094</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>99</v>
+      <c r="B96" s="1">
+        <v>8095</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>100</v>
+      <c r="B97" s="1">
+        <v>8096</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>101</v>
+      <c r="B98" s="1">
+        <v>8097</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>102</v>
+      <c r="B99" s="1">
+        <v>8098</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>103</v>
+      <c r="B100" s="1">
+        <v>8099</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>104</v>
+      <c r="B101" s="1">
+        <v>8100</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>105</v>
+      <c r="B102" s="1">
+        <v>8101</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>106</v>
+      <c r="B103" s="1">
+        <v>8102</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>107</v>
+      <c r="B104" s="1">
+        <v>8103</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>108</v>
+      <c r="B105" s="1">
+        <v>8104</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>109</v>
+      <c r="B106" s="1">
+        <v>8105</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>110</v>
+      <c r="B107" s="1">
+        <v>8106</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>111</v>
+      <c r="B108" s="1">
+        <v>8107</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>112</v>
+      <c r="B109" s="1">
+        <v>8108</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>113</v>
+      <c r="B110" s="1">
+        <v>8109</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>114</v>
+      <c r="B111" s="1">
+        <v>8110</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>115</v>
+      <c r="B112" s="1">
+        <v>8111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>116</v>
+      <c r="B113" s="1">
+        <v>8112</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>117</v>
+      <c r="B114" s="1">
+        <v>8113</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>118</v>
+      <c r="B115" s="1">
+        <v>8114</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>119</v>
+      <c r="B116" s="1">
+        <v>8115</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>120</v>
+      <c r="B117" s="1">
+        <v>8116</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>121</v>
+      <c r="B118" s="1">
+        <v>8117</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>122</v>
+      <c r="B119" s="1">
+        <v>8118</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>123</v>
+      <c r="B120" s="1">
+        <v>8119</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>124</v>
+      <c r="B121" s="1">
+        <v>8120</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>125</v>
+      <c r="B122" s="1">
+        <v>8121</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>126</v>
+      <c r="B123" s="1">
+        <v>8122</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>127</v>
+      <c r="B124" s="1">
+        <v>8123</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>128</v>
+      <c r="B125" s="1">
+        <v>8124</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>129</v>
+      <c r="B126" s="1">
+        <v>8125</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>130</v>
+      <c r="B127" s="1">
+        <v>8126</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>131</v>
+      <c r="B128" s="1">
+        <v>8127</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>132</v>
+      <c r="B129" s="1">
+        <v>8128</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>133</v>
+      <c r="B130" s="1">
+        <v>8129</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>134</v>
+      <c r="B131" s="1">
+        <v>8130</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>135</v>
+      <c r="B132" s="1">
+        <v>8131</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>136</v>
+      <c r="B133" s="1">
+        <v>8132</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>137</v>
+      <c r="B134" s="1">
+        <v>8133</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>138</v>
+      <c r="B135" s="1">
+        <v>8134</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>139</v>
+      <c r="B136" s="1">
+        <v>8135</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>140</v>
+      <c r="B137" s="1">
+        <v>8136</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>141</v>
+      <c r="B138" s="1">
+        <v>8137</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>142</v>
+      <c r="B139" s="1">
+        <v>8138</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>143</v>
+      <c r="B140" s="1">
+        <v>8139</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>144</v>
+      <c r="B141" s="1">
+        <v>8140</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>145</v>
+      <c r="B142" s="1">
+        <v>8141</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>146</v>
+      <c r="B143" s="1">
+        <v>8142</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>147</v>
+      <c r="B144" s="1">
+        <v>8143</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>148</v>
+      <c r="B145" s="1">
+        <v>8144</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>149</v>
+      <c r="B146" s="1">
+        <v>8145</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>150</v>
+      <c r="B147" s="1">
+        <v>8146</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>151</v>
+      <c r="B148" s="1">
+        <v>8147</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>152</v>
+      <c r="B149" s="1">
+        <v>8148</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>153</v>
+      <c r="B150" s="1">
+        <v>8149</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>154</v>
+      <c r="B151" s="1">
+        <v>8150</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>155</v>
+      <c r="B152" s="1">
+        <v>8151</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>156</v>
+      <c r="B153" s="1">
+        <v>8152</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>157</v>
+      <c r="B154" s="1">
+        <v>8153</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>158</v>
+      <c r="B155" s="1">
+        <v>8154</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>159</v>
+      <c r="B156" s="1">
+        <v>8155</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>160</v>
+      <c r="B157" s="1">
+        <v>8156</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>161</v>
+      <c r="B158" s="1">
+        <v>8157</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>162</v>
+      <c r="B159" s="1">
+        <v>8158</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>163</v>
+      <c r="B160" s="1">
+        <v>8159</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>164</v>
+      <c r="B161" s="1">
+        <v>8160</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>165</v>
+      <c r="B162" s="1">
+        <v>8161</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>166</v>
+      <c r="B163" s="1">
+        <v>8162</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>167</v>
+      <c r="B164" s="1">
+        <v>8163</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>168</v>
+      <c r="B165" s="1">
+        <v>8164</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>169</v>
+      <c r="B166" s="1">
+        <v>8165</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>170</v>
+      <c r="B167" s="1">
+        <v>8166</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>171</v>
+      <c r="B168" s="1">
+        <v>8167</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>172</v>
+      <c r="B169" s="1">
+        <v>8168</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>173</v>
+      <c r="B170" s="1">
+        <v>8169</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>174</v>
+      <c r="B171" s="1">
+        <v>8170</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>175</v>
+      <c r="B172" s="1">
+        <v>8171</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>176</v>
+      <c r="B173" s="1">
+        <v>8172</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>177</v>
+      <c r="B174" s="1">
+        <v>8173</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>178</v>
+      <c r="B175" s="1">
+        <v>8174</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>179</v>
+      <c r="B176" s="1">
+        <v>8175</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>180</v>
+      <c r="B177" s="1">
+        <v>8176</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>181</v>
+      <c r="B178" s="1">
+        <v>8177</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>182</v>
+      <c r="B179" s="1">
+        <v>8178</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>183</v>
+      <c r="B180" s="1">
+        <v>8179</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>184</v>
+      <c r="B181" s="1">
+        <v>8180</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>185</v>
+      <c r="B182" s="1">
+        <v>8181</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>186</v>
+      <c r="B183" s="1">
+        <v>8182</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>187</v>
+      <c r="B184" s="1">
+        <v>8183</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>188</v>
+      <c r="B185" s="1">
+        <v>8184</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>189</v>
+      <c r="B186" s="1">
+        <v>8185</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>190</v>
+      <c r="B187" s="1">
+        <v>8186</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>191</v>
+      <c r="B188" s="1">
+        <v>8187</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B189" s="4" t="s">
-        <v>192</v>
+      <c r="B189" s="1">
+        <v>8188</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>193</v>
+      <c r="B190" s="1">
+        <v>8189</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>194</v>
+      <c r="B191" s="1">
+        <v>8190</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>195</v>
+      <c r="B192" s="1">
+        <v>8191</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>196</v>
+      <c r="B193" s="1">
+        <v>8192</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>197</v>
+      <c r="B194" s="1">
+        <v>8193</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>198</v>
+      <c r="B195" s="1">
+        <v>8194</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>199</v>
+      <c r="B196" s="1">
+        <v>8195</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>200</v>
+      <c r="B197" s="1">
+        <v>8196</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>201</v>
+      <c r="B198" s="1">
+        <v>8197</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>202</v>
+      <c r="B199" s="1">
+        <v>8198</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>203</v>
+      <c r="B200" s="1">
+        <v>8199</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>204</v>
+      <c r="B201" s="1">
+        <v>8200</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>205</v>
+      <c r="B202" s="1">
+        <v>8201</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>206</v>
+      <c r="B203" s="1">
+        <v>8202</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>207</v>
+      <c r="B204" s="1">
+        <v>8203</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>208</v>
+      <c r="B205" s="1">
+        <v>8204</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="4" t="s">
-        <v>209</v>
+      <c r="B206" s="1">
+        <v>8205</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>210</v>
+      <c r="B207" s="1">
+        <v>8206</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>211</v>
+      <c r="B208" s="1">
+        <v>8207</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>212</v>
+      <c r="B209" s="1">
+        <v>8208</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>213</v>
+      <c r="B210" s="1">
+        <v>8209</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>214</v>
+      <c r="B211" s="1">
+        <v>8210</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>215</v>
+      <c r="B212" s="1">
+        <v>8211</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>216</v>
+      <c r="B213" s="1">
+        <v>8212</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>217</v>
+      <c r="B214" s="1">
+        <v>8213</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>218</v>
+      <c r="B215" s="1">
+        <v>8214</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>219</v>
+      <c r="B216" s="1">
+        <v>8215</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>220</v>
+      <c r="B217" s="1">
+        <v>8216</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>221</v>
+      <c r="B218" s="1">
+        <v>8217</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>222</v>
+      <c r="B219" s="1">
+        <v>8218</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>223</v>
+      <c r="B220" s="1">
+        <v>8219</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>224</v>
+      <c r="B221" s="1">
+        <v>8220</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>225</v>
+      <c r="B222" s="1">
+        <v>8221</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>226</v>
+      <c r="B223" s="1">
+        <v>8222</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>227</v>
+      <c r="B224" s="1">
+        <v>8223</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>228</v>
+      <c r="B225" s="1">
+        <v>8224</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>229</v>
+      <c r="B226" s="1">
+        <v>8225</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>230</v>
+      <c r="B227" s="1">
+        <v>8226</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>231</v>
+      <c r="B228" s="1">
+        <v>8227</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>232</v>
+      <c r="B229" s="1">
+        <v>8228</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="4" t="s">
-        <v>233</v>
+      <c r="B230" s="1">
+        <v>8229</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>234</v>
+      <c r="B231" s="1">
+        <v>8230</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>235</v>
+      <c r="B232" s="1">
+        <v>8231</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>236</v>
+      <c r="B233" s="1">
+        <v>8232</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>237</v>
+      <c r="B234" s="1">
+        <v>8233</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>238</v>
+      <c r="B235" s="1">
+        <v>8234</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>239</v>
+      <c r="B236" s="1">
+        <v>8235</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>240</v>
+      <c r="B237" s="1">
+        <v>8236</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>241</v>
+      <c r="B238" s="1">
+        <v>8237</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>242</v>
+      <c r="B239" s="1">
+        <v>8238</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>243</v>
+      <c r="B240" s="1">
+        <v>8239</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>244</v>
+      <c r="B241" s="1">
+        <v>8240</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>245</v>
+      <c r="B242" s="1">
+        <v>8241</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>246</v>
+      <c r="B243" s="1">
+        <v>8242</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>247</v>
+      <c r="B244" s="1">
+        <v>8243</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>248</v>
+      <c r="B245" s="1">
+        <v>8244</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>249</v>
+      <c r="B246" s="1">
+        <v>8245</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>250</v>
+      <c r="B247" s="1">
+        <v>8246</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>251</v>
+      <c r="B248" s="1">
+        <v>8247</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>252</v>
+      <c r="B249" s="1">
+        <v>8248</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>253</v>
+      <c r="B250" s="1">
+        <v>8249</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>254</v>
+      <c r="B251" s="1">
+        <v>8250</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>255</v>
+      <c r="B252" s="1">
+        <v>8251</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>256</v>
+      <c r="B253" s="1">
+        <v>8252</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>257</v>
+      <c r="B254" s="1">
+        <v>8253</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>258</v>
+      <c r="B255" s="1">
+        <v>8254</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>259</v>
+      <c r="B256" s="1">
+        <v>8255</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>260</v>
+      <c r="B257" s="1">
+        <v>8256</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>261</v>
+      <c r="B258" s="1">
+        <v>8257</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>262</v>
+      <c r="B259" s="1">
+        <v>8258</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>263</v>
+      <c r="B260" s="1">
+        <v>8259</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>264</v>
+      <c r="B261" s="1">
+        <v>8260</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B262" s="4" t="s">
-        <v>265</v>
+      <c r="B262" s="1">
+        <v>8261</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>266</v>
+      <c r="B263" s="1">
+        <v>8262</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>267</v>
+      <c r="B264" s="1">
+        <v>8263</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>268</v>
+      <c r="B265" s="1">
+        <v>8264</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>269</v>
+      <c r="B266" s="1">
+        <v>8265</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>270</v>
+      <c r="B267" s="1">
+        <v>8266</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>271</v>
+      <c r="B268" s="1">
+        <v>8267</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>272</v>
+      <c r="B269" s="1">
+        <v>8268</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>273</v>
+      <c r="B270" s="1">
+        <v>8269</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>274</v>
+      <c r="B271" s="1">
+        <v>8270</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>275</v>
+      <c r="B272" s="1">
+        <v>8271</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>276</v>
+      <c r="B273" s="1">
+        <v>8272</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>277</v>
+      <c r="B274" s="1">
+        <v>8273</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>278</v>
+      <c r="B275" s="1">
+        <v>8274</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>279</v>
+      <c r="B276" s="1">
+        <v>8275</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>280</v>
+      <c r="B277" s="1">
+        <v>8276</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>281</v>
+      <c r="B278" s="1">
+        <v>8277</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>282</v>
+      <c r="B279" s="1">
+        <v>8278</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>283</v>
+      <c r="B280" s="1">
+        <v>8279</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>284</v>
+      <c r="B281" s="1">
+        <v>8280</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="4" t="s">
-        <v>285</v>
+      <c r="B282" s="1">
+        <v>8281</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B283" s="4" t="s">
-        <v>286</v>
+      <c r="B283" s="1">
+        <v>8282</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B284" s="4" t="s">
-        <v>287</v>
+      <c r="B284" s="1">
+        <v>8283</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="4" t="s">
-        <v>288</v>
+      <c r="B285" s="1">
+        <v>8284</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B286" s="4" t="s">
-        <v>289</v>
+      <c r="B286" s="1">
+        <v>8285</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>290</v>
+      <c r="B287" s="1">
+        <v>8286</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>291</v>
+      <c r="B288" s="1">
+        <v>8287</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="4" t="s">
-        <v>292</v>
+      <c r="B289" s="1">
+        <v>8288</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>293</v>
+      <c r="B290" s="1">
+        <v>8289</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>294</v>
+      <c r="B291" s="1">
+        <v>8290</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B292" s="4" t="s">
-        <v>295</v>
+      <c r="B292" s="1">
+        <v>8291</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>296</v>
+      <c r="B293" s="1">
+        <v>8292</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>297</v>
+      <c r="B294" s="1">
+        <v>8293</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>298</v>
+      <c r="B295" s="1">
+        <v>8294</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B296" s="4" t="s">
-        <v>299</v>
+      <c r="B296" s="1">
+        <v>8295</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B297" s="4" t="s">
-        <v>300</v>
+      <c r="B297" s="1">
+        <v>8296</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="4" t="s">
-        <v>301</v>
+      <c r="B298" s="1">
+        <v>8297</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>302</v>
+      <c r="B299" s="1">
+        <v>8298</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>303</v>
+      <c r="B300" s="1">
+        <v>8299</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>304</v>
+      <c r="B301" s="1">
+        <v>8300</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B302" s="4" t="s">
-        <v>305</v>
+      <c r="B302" s="1">
+        <v>8301</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B303" s="4" t="s">
-        <v>306</v>
+      <c r="B303" s="1">
+        <v>8302</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B304" s="4" t="s">
-        <v>307</v>
+      <c r="B304" s="1">
+        <v>8303</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>308</v>
+      <c r="B305" s="1">
+        <v>8304</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>309</v>
+      <c r="B306" s="1">
+        <v>8305</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="4" t="s">
-        <v>310</v>
+      <c r="B307" s="1">
+        <v>8306</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B308" s="4" t="s">
-        <v>311</v>
+      <c r="B308" s="1">
+        <v>8307</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="4" t="s">
-        <v>312</v>
+      <c r="B309" s="1">
+        <v>8308</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>313</v>
+      <c r="B310" s="1">
+        <v>8309</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B311" s="4" t="s">
-        <v>314</v>
+      <c r="B311" s="1">
+        <v>8310</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>315</v>
+      <c r="B312" s="1">
+        <v>8311</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B313" s="4" t="s">
-        <v>316</v>
+      <c r="B313" s="1">
+        <v>8312</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>317</v>
+      <c r="B314" s="1">
+        <v>8313</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B315" s="4" t="s">
-        <v>318</v>
+      <c r="B315" s="1">
+        <v>8314</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B316" s="4" t="s">
-        <v>319</v>
+      <c r="B316" s="1">
+        <v>8315</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B317" s="4" t="s">
-        <v>320</v>
+      <c r="B317" s="1">
+        <v>8316</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>321</v>
+      <c r="B318" s="1">
+        <v>8317</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="4" t="s">
-        <v>322</v>
+      <c r="B319" s="1">
+        <v>8318</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="4" t="s">
-        <v>323</v>
+      <c r="B320" s="1">
+        <v>8319</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B321" s="4" t="s">
-        <v>324</v>
+      <c r="B321" s="1">
+        <v>8320</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B322" s="4" t="s">
-        <v>325</v>
+      <c r="B322" s="1">
+        <v>8321</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B323" s="4" t="s">
-        <v>326</v>
+      <c r="B323" s="1">
+        <v>8322</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B324" s="4" t="s">
-        <v>327</v>
+      <c r="B324" s="1">
+        <v>8323</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>328</v>
+      <c r="B325" s="1">
+        <v>8324</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>329</v>
+      <c r="B326" s="1">
+        <v>8325</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B327" s="4" t="s">
-        <v>330</v>
+      <c r="B327" s="1">
+        <v>8326</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B328" s="4" t="s">
-        <v>331</v>
+      <c r="B328" s="1">
+        <v>8327</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B329" s="4" t="s">
-        <v>332</v>
+      <c r="B329" s="1">
+        <v>8328</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B330" s="4" t="s">
-        <v>333</v>
+      <c r="B330" s="1">
+        <v>8329</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B331" s="4" t="s">
-        <v>334</v>
+      <c r="B331" s="1">
+        <v>8330</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B332" s="4" t="s">
-        <v>335</v>
+      <c r="B332" s="1">
+        <v>8331</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B333" s="4" t="s">
-        <v>336</v>
+      <c r="B333" s="1">
+        <v>8332</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B334" s="4" t="s">
-        <v>337</v>
+      <c r="B334" s="1">
+        <v>8333</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B335" s="4" t="s">
-        <v>338</v>
+      <c r="B335" s="1">
+        <v>8334</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B336" s="4" t="s">
-        <v>339</v>
+      <c r="B336" s="1">
+        <v>8335</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B337" s="4" t="s">
-        <v>340</v>
+      <c r="B337" s="1">
+        <v>8336</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B338" s="4" t="s">
-        <v>341</v>
+      <c r="B338" s="1">
+        <v>8337</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B339" s="4" t="s">
-        <v>342</v>
+      <c r="B339" s="1">
+        <v>8338</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B340" s="4" t="s">
-        <v>343</v>
+      <c r="B340" s="1">
+        <v>8339</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B341" s="4" t="s">
-        <v>344</v>
+      <c r="B341" s="1">
+        <v>8340</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B342" s="4" t="s">
-        <v>345</v>
+      <c r="B342" s="1">
+        <v>8341</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B343" s="4" t="s">
-        <v>346</v>
+      <c r="B343" s="1">
+        <v>8342</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B344" s="4" t="s">
-        <v>347</v>
+      <c r="B344" s="1">
+        <v>8343</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B345" s="4" t="s">
-        <v>348</v>
+      <c r="B345" s="1">
+        <v>8344</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B346" s="4" t="s">
-        <v>349</v>
+      <c r="B346" s="1">
+        <v>8345</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B347" s="4" t="s">
-        <v>350</v>
+      <c r="B347" s="1">
+        <v>8346</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B348" s="4" t="s">
-        <v>351</v>
+      <c r="B348" s="1">
+        <v>8347</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B349" s="4" t="s">
-        <v>352</v>
+      <c r="B349" s="1">
+        <v>8348</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B350" s="4" t="s">
-        <v>353</v>
+      <c r="B350" s="1">
+        <v>8349</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B351" s="4" t="s">
-        <v>354</v>
+      <c r="B351" s="1">
+        <v>8350</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="4" t="s">
-        <v>355</v>
+      <c r="B352" s="1">
+        <v>8351</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B353" s="4" t="s">
-        <v>356</v>
+      <c r="B353" s="1">
+        <v>8352</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B354" s="4" t="s">
-        <v>357</v>
+      <c r="B354" s="1">
+        <v>8353</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B355" s="4" t="s">
-        <v>358</v>
+      <c r="B355" s="1">
+        <v>8354</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B356" s="4" t="s">
-        <v>359</v>
+      <c r="B356" s="1">
+        <v>8355</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B357" s="4" t="s">
-        <v>360</v>
+      <c r="B357" s="1">
+        <v>8356</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B358" s="4" t="s">
-        <v>361</v>
+      <c r="B358" s="1">
+        <v>8357</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B359" s="4" t="s">
-        <v>362</v>
+      <c r="B359" s="1">
+        <v>8358</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B360" s="4" t="s">
-        <v>363</v>
+      <c r="B360" s="1">
+        <v>8359</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B361" s="4" t="s">
-        <v>364</v>
+      <c r="B361" s="1">
+        <v>8360</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B362" s="4" t="s">
-        <v>365</v>
+      <c r="B362" s="1">
+        <v>8361</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B363" s="4" t="s">
-        <v>366</v>
+      <c r="B363" s="1">
+        <v>8362</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B364" s="4" t="s">
-        <v>367</v>
+      <c r="B364" s="1">
+        <v>8363</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B365" s="4" t="s">
-        <v>368</v>
+      <c r="B365" s="1">
+        <v>8364</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B366" s="4" t="s">
-        <v>369</v>
+      <c r="B366" s="1">
+        <v>8365</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B367" s="4" t="s">
-        <v>370</v>
+      <c r="B367" s="1">
+        <v>8366</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B368" s="4" t="s">
-        <v>371</v>
+      <c r="B368" s="1">
+        <v>8367</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B369" s="4" t="s">
-        <v>372</v>
+      <c r="B369" s="1">
+        <v>8368</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B370" s="4" t="s">
-        <v>373</v>
+      <c r="B370" s="1">
+        <v>8369</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B371" s="4" t="s">
-        <v>374</v>
+      <c r="B371" s="1">
+        <v>8370</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B372" s="4" t="s">
-        <v>375</v>
+      <c r="B372" s="1">
+        <v>8371</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B373" s="4" t="s">
-        <v>376</v>
+      <c r="B373" s="1">
+        <v>8372</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B374" s="4" t="s">
-        <v>377</v>
+      <c r="B374" s="1">
+        <v>8373</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B375" s="4" t="s">
-        <v>378</v>
+      <c r="B375" s="1">
+        <v>8374</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B376" s="4" t="s">
-        <v>379</v>
+      <c r="B376" s="1">
+        <v>8375</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B377" s="4" t="s">
-        <v>380</v>
+      <c r="B377" s="1">
+        <v>8376</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B378" s="4" t="s">
-        <v>381</v>
+      <c r="B378" s="1">
+        <v>8377</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B379" s="4" t="s">
-        <v>382</v>
+      <c r="B379" s="1">
+        <v>8378</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B380" s="4" t="s">
-        <v>383</v>
+      <c r="B380" s="1">
+        <v>8379</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B381" s="4" t="s">
-        <v>384</v>
+      <c r="B381" s="1">
+        <v>8380</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B382" s="4" t="s">
-        <v>385</v>
+      <c r="B382" s="1">
+        <v>8381</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B383" s="4" t="s">
-        <v>386</v>
+      <c r="B383" s="1">
+        <v>8382</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B384" s="4" t="s">
-        <v>387</v>
+      <c r="B384" s="1">
+        <v>8383</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B385" s="4" t="s">
-        <v>388</v>
+      <c r="B385" s="1">
+        <v>8384</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B386" s="4" t="s">
-        <v>389</v>
+      <c r="B386" s="1">
+        <v>8385</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B387" s="4" t="s">
-        <v>390</v>
+      <c r="B387" s="1">
+        <v>8386</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B388" s="4" t="s">
-        <v>391</v>
+      <c r="B388" s="1">
+        <v>8387</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B389" s="4" t="s">
-        <v>392</v>
+      <c r="B389" s="1">
+        <v>8388</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B390" s="4" t="s">
-        <v>393</v>
+      <c r="B390" s="1">
+        <v>8389</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B391" s="4" t="s">
-        <v>394</v>
+      <c r="B391" s="1">
+        <v>8390</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B392" s="4" t="s">
-        <v>395</v>
+      <c r="B392" s="1">
+        <v>8391</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B393" s="4" t="s">
-        <v>396</v>
+      <c r="B393" s="1">
+        <v>8392</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B394" s="4" t="s">
-        <v>397</v>
+      <c r="B394" s="1">
+        <v>8393</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B395" s="4" t="s">
-        <v>398</v>
+      <c r="B395" s="1">
+        <v>8394</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B396" s="4" t="s">
-        <v>399</v>
+      <c r="B396" s="1">
+        <v>8395</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B397" s="4" t="s">
-        <v>400</v>
+      <c r="B397" s="1">
+        <v>8396</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B398" s="4" t="s">
-        <v>401</v>
+      <c r="B398" s="1">
+        <v>8397</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B399" s="4" t="s">
-        <v>402</v>
+      <c r="B399" s="1">
+        <v>8398</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B400" s="4" t="s">
-        <v>403</v>
+      <c r="B400" s="1">
+        <v>8399</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B401" s="4" t="s">
-        <v>404</v>
+      <c r="B401" s="1">
+        <v>8400</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B402" s="4" t="s">
-        <v>405</v>
+      <c r="B402" s="1">
+        <v>8401</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B403" s="4" t="s">
-        <v>406</v>
+      <c r="B403" s="1">
+        <v>8402</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B404" s="4" t="s">
-        <v>407</v>
+      <c r="B404" s="1">
+        <v>8403</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B405" s="4" t="s">
-        <v>408</v>
+      <c r="B405" s="1">
+        <v>8404</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B406" s="4" t="s">
-        <v>409</v>
+      <c r="B406" s="1">
+        <v>8405</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B407" s="4" t="s">
-        <v>410</v>
+      <c r="B407" s="1">
+        <v>8406</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B408" s="4" t="s">
-        <v>411</v>
+      <c r="B408" s="1">
+        <v>8407</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B409" s="4" t="s">
-        <v>412</v>
+      <c r="B409" s="1">
+        <v>8408</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" s="1">
+        <v>8409</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411" s="1">
+        <v>8410</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B412" s="1">
+        <v>8411</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B413" s="1">
+        <v>8412</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414" s="1">
+        <v>8413</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B415" s="1">
+        <v>8414</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B416" s="1">
+        <v>8415</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B417" s="1">
+        <v>8416</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418" s="1">
+        <v>8417</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B419" s="1">
+        <v>8418</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B420" s="1">
+        <v>8419</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B421" s="1">
+        <v>8420</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422" s="1">
+        <v>8421</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B423" s="1">
+        <v>8422</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B424" s="1">
+        <v>8423</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B425" s="1">
+        <v>8424</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426" s="1">
+        <v>8425</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B427" s="1">
+        <v>8426</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428" s="1">
+        <v>8427</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B429" s="1">
+        <v>8428</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B430" s="1">
+        <v>8429</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" s="1">
+        <v>8430</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B432" s="1">
+        <v>8431</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B433" s="1">
+        <v>8432</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B434" s="1">
+        <v>8433</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B435" s="1">
+        <v>8434</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B436" s="1">
+        <v>8435</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" s="1">
+        <v>8436</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B438" s="1">
+        <v>8437</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B439" s="1">
+        <v>8438</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B440" s="1">
+        <v>8439</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B441" s="1">
+        <v>8440</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B442" s="1">
+        <v>8441</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B443" s="1">
+        <v>8442</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B444" s="1">
+        <v>8443</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B445" s="1">
+        <v>8444</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B446" s="1">
+        <v>8445</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447" s="1">
+        <v>8446</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B448" s="1">
+        <v>8447</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B449" s="1">
+        <v>8448</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B450" s="1">
+        <v>8449</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B451" s="1">
+        <v>8450</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
